--- a/Lab7-Timings.xlsx
+++ b/Lab7-Timings.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dellnas\caustin\Folders\Desktop\lab_7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project1\cosc_2030_lab_7-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDAFDEB-AC16-496E-A414-5BBAF9D2EB9E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9345" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -74,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -96,6 +102,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -413,11 +420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -495,6 +502,9 @@
       <c r="F5">
         <v>16.398</v>
       </c>
+      <c r="G5">
+        <v>2.4725299999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -517,6 +527,9 @@
       <c r="F6">
         <v>15.7601</v>
       </c>
+      <c r="G6">
+        <v>2.3329599999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -526,18 +539,22 @@
         <v>2260</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C6:C10" si="0">2*B7</f>
+        <f t="shared" ref="C7:C10" si="0">2*B7</f>
         <v>4520</v>
       </c>
       <c r="D7">
         <v>17.413</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E6:E10" si="1">2*C7</f>
+        <f t="shared" ref="E7:E10" si="1">2*C7</f>
         <v>9040</v>
       </c>
       <c r="F7">
         <v>69.819599999999994</v>
+      </c>
+      <c r="G7">
+        <f>((2000000^2)/(B7*B7))*4</f>
+        <v>3132586.7334951838</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -551,35 +568,70 @@
         <f t="shared" si="0"/>
         <v>245000</v>
       </c>
+      <c r="D8">
+        <v>13.4815</v>
+      </c>
       <c r="E8">
         <f t="shared" si="1"/>
         <v>490000</v>
       </c>
+      <c r="F8">
+        <v>51.122199999999999</v>
+      </c>
+      <c r="G8">
+        <f>((2000000^2)/(B8*B8))*4</f>
+        <v>1066.2224073302791</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>12335</v>
+      </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24670</v>
+      </c>
+      <c r="D9">
+        <v>15.938499999999999</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>49340</v>
+      </c>
+      <c r="F9">
+        <v>63.585500000000003</v>
+      </c>
+      <c r="G9">
+        <f>((2000000^2)/(B9*B9))*4</f>
+        <v>105157.84438906497</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>700000</v>
+      </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1400000</v>
+      </c>
+      <c r="D10">
+        <v>8.2065599999999996</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2800000</v>
+      </c>
+      <c r="F10">
+        <v>16.619499999999999</v>
+      </c>
+      <c r="G10">
+        <v>11.811400000000001</v>
       </c>
     </row>
   </sheetData>
